--- a/refs/heads/rc2-ddcc/StructureDefinition-DDCCDocument.xlsx
+++ b/refs/heads/rc2-ddcc/StructureDefinition-DDCCDocument.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$209</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$241</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7244" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8352" uniqueCount="272">
   <si>
     <t>Path</t>
   </si>
@@ -823,6 +823,22 @@
     <t>SubstanceAdministration</t>
   </si>
   <si>
+    <t>ddccImmunizationRecommendation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ImmunizationRecommendation {https://who-int.github.io/svc/refs/heads/rc2/StructureDefinition/DDCCImmunizationRecommendation}
+</t>
+  </si>
+  <si>
+    <t>Guidance or advice relating to an immunization</t>
+  </si>
+  <si>
+    <t>A patient's point-in-time set of recommendations (i.e. forecasting) according to a published schedule with optional supporting justification.</t>
+  </si>
+  <si>
+    <t>SubstanceAdministration[moodCode=RMD]</t>
+  </si>
+  <si>
     <t>ddccQR</t>
   </si>
   <si>
@@ -1010,7 +1026,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM209"/>
+  <dimension ref="A1:AM241"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1020,7 +1036,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="39.00390625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="17.9296875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="34.12109375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="28.78125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -20489,7 +20505,7 @@
         <v>41</v>
       </c>
       <c r="F177" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G177" t="s" s="2">
         <v>40</v>
@@ -21171,9 +21187,7 @@
       <c r="L183" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="M183" t="s" s="2">
-        <v>258</v>
-      </c>
+      <c r="M183" s="2"/>
       <c r="N183" s="2"/>
       <c r="O183" t="s" s="2">
         <v>40</v>
@@ -21237,13 +21251,13 @@
         <v>231</v>
       </c>
       <c r="AJ183" t="s" s="2">
-        <v>40</v>
+        <v>252</v>
       </c>
       <c r="AK183" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AL183" t="s" s="2">
-        <v>260</v>
+        <v>40</v>
       </c>
       <c r="AM183" t="s" s="2">
         <v>40</v>
@@ -24004,11 +24018,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="209">
+    <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="B209" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="B209" t="s" s="2">
+        <v>259</v>
+      </c>
       <c r="C209" t="s" s="2">
         <v>40</v>
       </c>
@@ -24017,10 +24033,10 @@
         <v>41</v>
       </c>
       <c r="F209" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G209" t="s" s="2">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H209" t="s" s="2">
         <v>40</v>
@@ -24029,20 +24045,16 @@
         <v>43</v>
       </c>
       <c r="J209" t="s" s="2">
-        <v>262</v>
+        <v>107</v>
       </c>
       <c r="K209" t="s" s="2">
-        <v>263</v>
+        <v>138</v>
       </c>
       <c r="L209" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="M209" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="N209" t="s" s="2">
-        <v>266</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="M209" s="2"/>
+      <c r="N209" s="2"/>
       <c r="O209" t="s" s="2">
         <v>40</v>
       </c>
@@ -24090,35 +24102,3567 @@
         <v>40</v>
       </c>
       <c r="AE209" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AF209" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG209" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH209" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI209" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AJ209" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK209" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL209" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM209" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="210" hidden="true">
+      <c r="A210" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="B210" s="2"/>
+      <c r="C210" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D210" s="2"/>
+      <c r="E210" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F210" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G210" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H210" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I210" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J210" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K210" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="L210" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="M210" s="2"/>
+      <c r="N210" s="2"/>
+      <c r="O210" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P210" s="2"/>
+      <c r="Q210" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R210" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S210" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T210" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U210" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V210" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W210" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X210" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y210" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z210" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA210" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB210" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC210" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD210" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE210" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AF210" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG210" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH210" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI210" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ210" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK210" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AL210" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM210" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="211" hidden="true">
+      <c r="A211" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="B211" s="2"/>
+      <c r="C211" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="D211" s="2"/>
+      <c r="E211" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F211" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G211" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H211" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I211" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J211" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K211" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="L211" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="M211" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="N211" s="2"/>
+      <c r="O211" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P211" s="2"/>
+      <c r="Q211" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R211" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S211" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T211" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U211" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V211" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W211" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X211" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y211" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z211" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA211" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB211" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC211" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD211" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE211" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AF211" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG211" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH211" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI211" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AJ211" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK211" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AL211" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM211" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="212" hidden="true">
+      <c r="A212" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="B212" s="2"/>
+      <c r="C212" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="D212" s="2"/>
+      <c r="E212" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F212" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G212" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H212" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I212" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J212" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K212" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L212" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M212" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="N212" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="O212" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P212" s="2"/>
+      <c r="Q212" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R212" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S212" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T212" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U212" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V212" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W212" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X212" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y212" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z212" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA212" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB212" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC212" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD212" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE212" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AF212" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG212" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH212" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI212" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AJ212" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK212" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AL212" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM212" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="213" hidden="true">
+      <c r="A213" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="B213" s="2"/>
+      <c r="C213" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D213" s="2"/>
+      <c r="E213" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F213" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G213" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H213" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I213" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J213" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="K213" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="L213" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M213" s="2"/>
+      <c r="N213" s="2"/>
+      <c r="O213" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P213" s="2"/>
+      <c r="Q213" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R213" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S213" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T213" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U213" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V213" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W213" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X213" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y213" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z213" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA213" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB213" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC213" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD213" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE213" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AF213" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG213" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH213" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI213" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ213" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK213" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL213" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM213" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="214" hidden="true">
+      <c r="A214" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="B214" s="2"/>
+      <c r="C214" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D214" s="2"/>
+      <c r="E214" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F214" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G214" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H214" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I214" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J214" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K214" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="L214" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="M214" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="N214" s="2"/>
+      <c r="O214" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P214" s="2"/>
+      <c r="Q214" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R214" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S214" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T214" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U214" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V214" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W214" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X214" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y214" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z214" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA214" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB214" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC214" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD214" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE214" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AF214" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG214" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH214" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI214" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ214" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK214" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL214" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM214" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="215" hidden="true">
+      <c r="A215" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="B215" s="2"/>
+      <c r="C215" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D215" s="2"/>
+      <c r="E215" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F215" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G215" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H215" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I215" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J215" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="K215" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="AF209" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG209" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH209" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI209" t="s" s="2">
+      <c r="L215" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="M215" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="N215" s="2"/>
+      <c r="O215" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P215" s="2"/>
+      <c r="Q215" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R215" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S215" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T215" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U215" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V215" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W215" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X215" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y215" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z215" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA215" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB215" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC215" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD215" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE215" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AF215" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG215" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH215" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI215" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AJ215" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK215" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AL215" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AM215" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="216" hidden="true">
+      <c r="A216" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="B216" s="2"/>
+      <c r="C216" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D216" s="2"/>
+      <c r="E216" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F216" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G216" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H216" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I216" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J216" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="K216" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L216" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M216" s="2"/>
+      <c r="N216" s="2"/>
+      <c r="O216" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P216" s="2"/>
+      <c r="Q216" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R216" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S216" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T216" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U216" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V216" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W216" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X216" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y216" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z216" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA216" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB216" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC216" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD216" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE216" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AF216" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG216" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH216" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AI216" t="s" s="2">
         <v>61</v>
       </c>
-      <c r="AJ209" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK209" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL209" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM209" t="s" s="2">
+      <c r="AJ216" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK216" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL216" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM216" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="217" hidden="true">
+      <c r="A217" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="B217" s="2"/>
+      <c r="C217" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D217" s="2"/>
+      <c r="E217" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F217" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G217" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H217" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I217" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J217" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K217" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="L217" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="M217" s="2"/>
+      <c r="N217" s="2"/>
+      <c r="O217" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P217" s="2"/>
+      <c r="Q217" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R217" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S217" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T217" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U217" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V217" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W217" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X217" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y217" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z217" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA217" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB217" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC217" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD217" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE217" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AF217" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG217" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH217" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI217" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ217" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK217" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AL217" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM217" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="218" hidden="true">
+      <c r="A218" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="B218" s="2"/>
+      <c r="C218" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="D218" s="2"/>
+      <c r="E218" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F218" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G218" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H218" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I218" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J218" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K218" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="L218" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="M218" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="N218" s="2"/>
+      <c r="O218" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P218" s="2"/>
+      <c r="Q218" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R218" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S218" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T218" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U218" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V218" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W218" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X218" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y218" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z218" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA218" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB218" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC218" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD218" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE218" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AF218" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG218" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH218" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI218" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AJ218" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK218" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AL218" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM218" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="219" hidden="true">
+      <c r="A219" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="B219" s="2"/>
+      <c r="C219" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="D219" s="2"/>
+      <c r="E219" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F219" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G219" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H219" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I219" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J219" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K219" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L219" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M219" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="N219" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="O219" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P219" s="2"/>
+      <c r="Q219" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R219" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S219" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T219" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U219" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V219" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W219" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X219" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y219" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z219" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA219" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB219" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC219" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD219" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE219" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AF219" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG219" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH219" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI219" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AJ219" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK219" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AL219" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM219" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="220" hidden="true">
+      <c r="A220" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="B220" s="2"/>
+      <c r="C220" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D220" s="2"/>
+      <c r="E220" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F220" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G220" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H220" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I220" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J220" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="K220" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L220" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M220" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="N220" s="2"/>
+      <c r="O220" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P220" s="2"/>
+      <c r="Q220" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R220" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S220" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T220" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U220" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V220" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W220" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="X220" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="Y220" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="Z220" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA220" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB220" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC220" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD220" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE220" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AF220" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG220" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH220" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI220" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ220" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK220" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL220" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM220" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="221" hidden="true">
+      <c r="A221" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="B221" s="2"/>
+      <c r="C221" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D221" s="2"/>
+      <c r="E221" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F221" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G221" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H221" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I221" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J221" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="K221" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L221" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M221" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="N221" s="2"/>
+      <c r="O221" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P221" s="2"/>
+      <c r="Q221" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R221" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S221" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T221" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U221" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V221" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W221" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X221" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y221" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z221" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA221" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB221" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC221" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD221" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE221" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AF221" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG221" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH221" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI221" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ221" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK221" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL221" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM221" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="222" hidden="true">
+      <c r="A222" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="B222" s="2"/>
+      <c r="C222" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D222" s="2"/>
+      <c r="E222" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F222" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G222" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H222" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I222" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J222" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="K222" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L222" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="M222" s="2"/>
+      <c r="N222" s="2"/>
+      <c r="O222" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P222" s="2"/>
+      <c r="Q222" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R222" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S222" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T222" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U222" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V222" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W222" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X222" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y222" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z222" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA222" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB222" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC222" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD222" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE222" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AF222" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG222" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH222" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AI222" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ222" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK222" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL222" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM222" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="223" hidden="true">
+      <c r="A223" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="B223" s="2"/>
+      <c r="C223" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D223" s="2"/>
+      <c r="E223" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F223" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G223" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H223" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I223" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J223" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K223" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="L223" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="M223" s="2"/>
+      <c r="N223" s="2"/>
+      <c r="O223" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P223" s="2"/>
+      <c r="Q223" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R223" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S223" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T223" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U223" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V223" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W223" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X223" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y223" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z223" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA223" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB223" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC223" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD223" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE223" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AF223" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG223" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH223" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI223" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ223" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK223" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AL223" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM223" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="224" hidden="true">
+      <c r="A224" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="B224" s="2"/>
+      <c r="C224" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="D224" s="2"/>
+      <c r="E224" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F224" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G224" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H224" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I224" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J224" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K224" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="L224" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="M224" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="N224" s="2"/>
+      <c r="O224" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P224" s="2"/>
+      <c r="Q224" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R224" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S224" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T224" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U224" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V224" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W224" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X224" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y224" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z224" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA224" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB224" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC224" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD224" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE224" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AF224" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG224" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH224" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI224" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AJ224" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK224" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AL224" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM224" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="225" hidden="true">
+      <c r="A225" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="B225" s="2"/>
+      <c r="C225" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="D225" s="2"/>
+      <c r="E225" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F225" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G225" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H225" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I225" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J225" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K225" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L225" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M225" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="N225" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="O225" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P225" s="2"/>
+      <c r="Q225" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R225" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S225" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T225" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U225" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V225" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W225" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X225" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y225" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z225" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA225" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB225" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC225" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD225" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE225" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AF225" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG225" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH225" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI225" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AJ225" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK225" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AL225" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM225" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="226" hidden="true">
+      <c r="A226" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="B226" s="2"/>
+      <c r="C226" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D226" s="2"/>
+      <c r="E226" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="F226" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G226" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H226" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I226" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J226" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="K226" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="L226" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="M226" s="2"/>
+      <c r="N226" s="2"/>
+      <c r="O226" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P226" s="2"/>
+      <c r="Q226" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R226" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S226" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T226" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U226" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V226" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W226" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="X226" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="Y226" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="Z226" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA226" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB226" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC226" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD226" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE226" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AF226" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AG226" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH226" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI226" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ226" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK226" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL226" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM226" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="227" hidden="true">
+      <c r="A227" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="B227" s="2"/>
+      <c r="C227" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D227" s="2"/>
+      <c r="E227" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="F227" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G227" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H227" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I227" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J227" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K227" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L227" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="M227" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="N227" s="2"/>
+      <c r="O227" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P227" s="2"/>
+      <c r="Q227" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R227" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S227" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T227" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U227" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V227" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W227" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X227" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y227" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z227" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA227" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB227" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC227" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD227" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE227" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AF227" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AG227" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH227" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI227" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ227" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK227" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL227" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM227" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="228" hidden="true">
+      <c r="A228" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="B228" s="2"/>
+      <c r="C228" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D228" s="2"/>
+      <c r="E228" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F228" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G228" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H228" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I228" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J228" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K228" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L228" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="M228" s="2"/>
+      <c r="N228" s="2"/>
+      <c r="O228" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P228" s="2"/>
+      <c r="Q228" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R228" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S228" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T228" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U228" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V228" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W228" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X228" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y228" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z228" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA228" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB228" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC228" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD228" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE228" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AF228" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG228" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH228" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI228" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ228" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK228" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL228" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM228" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="229" hidden="true">
+      <c r="A229" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="B229" s="2"/>
+      <c r="C229" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D229" s="2"/>
+      <c r="E229" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F229" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G229" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H229" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I229" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J229" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K229" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L229" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="M229" s="2"/>
+      <c r="N229" s="2"/>
+      <c r="O229" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P229" s="2"/>
+      <c r="Q229" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R229" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S229" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T229" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U229" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V229" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W229" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X229" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y229" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z229" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA229" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB229" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC229" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD229" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE229" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AF229" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG229" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH229" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI229" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ229" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK229" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL229" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM229" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="230" hidden="true">
+      <c r="A230" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="B230" s="2"/>
+      <c r="C230" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D230" s="2"/>
+      <c r="E230" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F230" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G230" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H230" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I230" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J230" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K230" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="L230" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="M230" s="2"/>
+      <c r="N230" s="2"/>
+      <c r="O230" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P230" s="2"/>
+      <c r="Q230" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R230" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S230" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T230" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U230" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V230" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W230" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X230" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y230" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z230" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA230" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB230" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC230" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD230" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE230" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AF230" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG230" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH230" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI230" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ230" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK230" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL230" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM230" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="231" hidden="true">
+      <c r="A231" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="B231" s="2"/>
+      <c r="C231" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D231" s="2"/>
+      <c r="E231" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F231" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G231" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H231" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I231" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J231" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K231" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="L231" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="M231" s="2"/>
+      <c r="N231" s="2"/>
+      <c r="O231" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P231" s="2"/>
+      <c r="Q231" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R231" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S231" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T231" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U231" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V231" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W231" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X231" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y231" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z231" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA231" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB231" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC231" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD231" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE231" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AF231" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG231" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH231" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI231" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ231" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK231" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL231" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM231" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="232" hidden="true">
+      <c r="A232" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="B232" s="2"/>
+      <c r="C232" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D232" s="2"/>
+      <c r="E232" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F232" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G232" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H232" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I232" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J232" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="K232" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L232" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="M232" s="2"/>
+      <c r="N232" s="2"/>
+      <c r="O232" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P232" s="2"/>
+      <c r="Q232" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R232" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S232" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T232" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U232" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V232" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W232" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X232" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y232" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z232" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA232" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB232" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC232" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD232" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE232" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AF232" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG232" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH232" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AI232" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ232" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK232" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL232" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM232" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="233" hidden="true">
+      <c r="A233" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="B233" s="2"/>
+      <c r="C233" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D233" s="2"/>
+      <c r="E233" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F233" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G233" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H233" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I233" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J233" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K233" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="L233" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="M233" s="2"/>
+      <c r="N233" s="2"/>
+      <c r="O233" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P233" s="2"/>
+      <c r="Q233" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R233" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S233" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T233" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U233" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V233" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W233" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X233" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y233" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z233" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA233" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB233" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC233" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD233" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE233" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AF233" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG233" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH233" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI233" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ233" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK233" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AL233" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM233" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="234" hidden="true">
+      <c r="A234" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="B234" s="2"/>
+      <c r="C234" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="D234" s="2"/>
+      <c r="E234" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F234" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G234" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H234" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I234" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J234" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K234" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="L234" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="M234" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="N234" s="2"/>
+      <c r="O234" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P234" s="2"/>
+      <c r="Q234" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R234" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S234" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T234" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U234" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V234" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W234" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X234" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y234" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z234" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA234" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB234" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC234" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD234" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE234" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AF234" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG234" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH234" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI234" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AJ234" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK234" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AL234" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM234" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="235" hidden="true">
+      <c r="A235" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="B235" s="2"/>
+      <c r="C235" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="D235" s="2"/>
+      <c r="E235" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F235" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G235" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H235" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I235" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J235" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K235" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L235" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M235" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="N235" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="O235" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P235" s="2"/>
+      <c r="Q235" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R235" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S235" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T235" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U235" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V235" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W235" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X235" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y235" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z235" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA235" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB235" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC235" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD235" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE235" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AF235" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG235" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH235" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI235" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AJ235" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK235" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AL235" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM235" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="236" hidden="true">
+      <c r="A236" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="B236" s="2"/>
+      <c r="C236" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D236" s="2"/>
+      <c r="E236" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="F236" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G236" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H236" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I236" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J236" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K236" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L236" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="M236" s="2"/>
+      <c r="N236" s="2"/>
+      <c r="O236" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P236" s="2"/>
+      <c r="Q236" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R236" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S236" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T236" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U236" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V236" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W236" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X236" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y236" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z236" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA236" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB236" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC236" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD236" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE236" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AF236" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AG236" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH236" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI236" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ236" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK236" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL236" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM236" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="237" hidden="true">
+      <c r="A237" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="B237" s="2"/>
+      <c r="C237" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D237" s="2"/>
+      <c r="E237" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F237" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G237" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H237" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I237" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J237" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K237" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="L237" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="M237" s="2"/>
+      <c r="N237" s="2"/>
+      <c r="O237" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P237" s="2"/>
+      <c r="Q237" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R237" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S237" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T237" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U237" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V237" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W237" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X237" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y237" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z237" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA237" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB237" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC237" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD237" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE237" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AF237" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG237" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH237" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI237" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ237" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK237" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL237" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM237" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="238" hidden="true">
+      <c r="A238" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="B238" s="2"/>
+      <c r="C238" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D238" s="2"/>
+      <c r="E238" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F238" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G238" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H238" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I238" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J238" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K238" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L238" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="M238" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="N238" s="2"/>
+      <c r="O238" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P238" s="2"/>
+      <c r="Q238" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R238" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S238" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T238" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U238" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V238" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W238" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X238" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y238" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z238" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA238" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB238" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC238" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD238" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE238" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AF238" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG238" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH238" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI238" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ238" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK238" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL238" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM238" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="239" hidden="true">
+      <c r="A239" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="B239" s="2"/>
+      <c r="C239" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D239" s="2"/>
+      <c r="E239" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F239" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G239" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H239" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I239" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J239" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K239" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="L239" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="M239" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="N239" s="2"/>
+      <c r="O239" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P239" s="2"/>
+      <c r="Q239" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R239" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S239" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T239" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U239" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V239" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W239" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X239" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y239" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z239" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA239" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB239" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC239" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD239" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE239" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AF239" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG239" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH239" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI239" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ239" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK239" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL239" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM239" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="240" hidden="true">
+      <c r="A240" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="B240" s="2"/>
+      <c r="C240" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D240" s="2"/>
+      <c r="E240" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F240" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G240" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H240" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I240" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J240" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="K240" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L240" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="M240" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="N240" s="2"/>
+      <c r="O240" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P240" s="2"/>
+      <c r="Q240" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R240" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S240" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T240" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U240" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V240" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W240" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X240" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y240" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z240" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA240" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB240" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC240" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD240" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE240" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AF240" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG240" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH240" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI240" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ240" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK240" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL240" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM240" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="B241" s="2"/>
+      <c r="C241" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D241" s="2"/>
+      <c r="E241" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F241" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G241" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H241" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I241" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J241" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="K241" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="L241" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="M241" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="N241" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="O241" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P241" s="2"/>
+      <c r="Q241" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R241" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S241" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T241" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U241" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V241" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W241" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X241" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y241" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z241" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA241" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB241" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC241" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD241" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE241" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AF241" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG241" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH241" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI241" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ241" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK241" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL241" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM241" t="s" s="2">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM209">
+  <autoFilter ref="A1:AM241">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -24128,7 +27672,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI208">
+  <conditionalFormatting sqref="A2:AI240">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/refs/heads/rc2-ddcc/StructureDefinition-DDCCDocument.xlsx
+++ b/refs/heads/rc2-ddcc/StructureDefinition-DDCCDocument.xlsx
@@ -735,7 +735,7 @@
     <t>ddccComposition</t>
   </si>
   <si>
-    <t xml:space="preserve">Composition {https://who-int.github.io/svc/refs/heads/rc2/StructureDefinition/DDCCComposition}
+    <t xml:space="preserve">Composition {https://worldhealthorganization.github.io/ddcc-rcs1/StructureDefinition/DDCCComposition}
 </t>
   </si>
   <si>
@@ -765,7 +765,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Patient {https://who-int.github.io/svc/refs/heads/rc2/StructureDefinition/DDCCPatient}
+    <t xml:space="preserve">Patient {https://worldhealthorganization.github.io/ddcc-rcs1/StructureDefinition/DDCCPatient}
 </t>
   </si>
   <si>
@@ -784,7 +784,7 @@
     <t>ddccOrganization</t>
   </si>
   <si>
-    <t xml:space="preserve">Organization {https://who-int.github.io/svc/refs/heads/rc2/StructureDefinition/DDCCOrganization}
+    <t xml:space="preserve">Organization {https://worldhealthorganization.github.io/ddcc-rcs1/StructureDefinition/DDCCOrganization}
 </t>
   </si>
   <si>
@@ -807,7 +807,7 @@
     <t>ddccImmunization</t>
   </si>
   <si>
-    <t xml:space="preserve">Immunization {https://who-int.github.io/svc/refs/heads/rc2/StructureDefinition/DDCCImmunization}
+    <t xml:space="preserve">Immunization {https://worldhealthorganization.github.io/ddcc-rcs1/StructureDefinition/DDCCImmunization}
 </t>
   </si>
   <si>
@@ -826,7 +826,7 @@
     <t>ddccImmunizationRecommendation</t>
   </si>
   <si>
-    <t xml:space="preserve">ImmunizationRecommendation {https://who-int.github.io/svc/refs/heads/rc2/StructureDefinition/DDCCImmunizationRecommendation}
+    <t xml:space="preserve">ImmunizationRecommendation {https://worldhealthorganization.github.io/ddcc-rcs1/StructureDefinition/DDCCImmunizationRecommendation}
 </t>
   </si>
   <si>
@@ -842,7 +842,7 @@
     <t>ddccQR</t>
   </si>
   <si>
-    <t xml:space="preserve">DocumentReference {https://who-int.github.io/svc/refs/heads/rc2/StructureDefinition/DDCCDocumentReferenceQR}
+    <t xml:space="preserve">DocumentReference {https://worldhealthorganization.github.io/ddcc-rcs1/StructureDefinition/DDCCDocumentReferenceQR}
 </t>
   </si>
   <si>

--- a/refs/heads/rc2-ddcc/StructureDefinition-DDCCDocument.xlsx
+++ b/refs/heads/rc2-ddcc/StructureDefinition-DDCCDocument.xlsx
@@ -735,7 +735,7 @@
     <t>ddccComposition</t>
   </si>
   <si>
-    <t xml:space="preserve">Composition {https://worldhealthorganization.github.io/ddcc-rcs1/StructureDefinition/DDCCComposition}
+    <t xml:space="preserve">Composition {https://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCComposition}
 </t>
   </si>
   <si>
@@ -765,7 +765,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Patient {https://worldhealthorganization.github.io/ddcc-rcs1/StructureDefinition/DDCCPatient}
+    <t xml:space="preserve">Patient {https://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCPatient}
 </t>
   </si>
   <si>
@@ -784,7 +784,7 @@
     <t>ddccOrganization</t>
   </si>
   <si>
-    <t xml:space="preserve">Organization {https://worldhealthorganization.github.io/ddcc-rcs1/StructureDefinition/DDCCOrganization}
+    <t xml:space="preserve">Organization {https://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCOrganization}
 </t>
   </si>
   <si>
@@ -807,7 +807,7 @@
     <t>ddccImmunization</t>
   </si>
   <si>
-    <t xml:space="preserve">Immunization {https://worldhealthorganization.github.io/ddcc-rcs1/StructureDefinition/DDCCImmunization}
+    <t xml:space="preserve">Immunization {https://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCImmunization}
 </t>
   </si>
   <si>
@@ -826,7 +826,7 @@
     <t>ddccImmunizationRecommendation</t>
   </si>
   <si>
-    <t xml:space="preserve">ImmunizationRecommendation {https://worldhealthorganization.github.io/ddcc-rcs1/StructureDefinition/DDCCImmunizationRecommendation}
+    <t xml:space="preserve">ImmunizationRecommendation {https://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCImmunizationRecommendation}
 </t>
   </si>
   <si>
@@ -842,7 +842,7 @@
     <t>ddccQR</t>
   </si>
   <si>
-    <t xml:space="preserve">DocumentReference {https://worldhealthorganization.github.io/ddcc-rcs1/StructureDefinition/DDCCDocumentReferenceQR}
+    <t xml:space="preserve">DocumentReference {https://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCDocumentReferenceQR}
 </t>
   </si>
   <si>
